--- a/output/【河洛話注音】寄黃幾復.xlsx
+++ b/output/【河洛話注音】寄黃幾復.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21577D36-E27F-4D32-ACB6-0C002B9CF623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB6D4EF1-A0D8-41E7-B9DD-A07E5C55A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="3135" windowWidth="15330" windowHeight="10890" xr2:uid="{0A3FD71F-7542-4588-8E12-DEAB23756B7E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3FD71F-7542-4588-8E12-DEAB23756B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="552">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -579,1213 +579,1155 @@
     <t>ciong3</t>
   </si>
   <si>
-    <t xml:space="preserve">《寄黃幾復》【十五音切語】
-&lt;div class='separator' style='clear: both'&gt;
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居三求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公三時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;皆七地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高二語&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;皆二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;甘五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;干七語&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居一時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;迦七時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君一出&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;巾四英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;檜一邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩二曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;江一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;沽五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;迦七英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;金八時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經一地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;膠一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;干五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居三時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;金八柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經七邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;甘一時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅三求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公八地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;茄五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經八邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經四求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;伽一去&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀五英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公四去&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭三曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hông&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sòng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tāi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;têng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pek&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hái&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kun&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lâm&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gān&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;toân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sīa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tô&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhun&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;poe&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chíu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kang&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hô͘&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;īa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si̍p&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lîan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;teng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ka&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li̍p&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pek&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pēng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sam&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kìan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;to̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tîo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;í&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pe̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kek&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khe&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;oân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chìong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;têng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tuân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshun&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pue&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsíu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pīng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kik&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;uân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsìong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dâi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;díng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gīan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ggǒ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bīk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǎi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gūn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lám&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ggân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dúan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sîa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cūn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;īt&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;būe&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gāng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hóo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síp&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lían&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dīng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gā&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dán&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;líp&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bīk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sām&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǐong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gìan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dók&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dío&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bík&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gīk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kē&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;úan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kōk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zìong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;díng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;song3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tai7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;go2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hai2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lam5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gan7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tuan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;to5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pue1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hoo5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ia7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ping7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kian3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tio5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khe1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;song3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tai7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kian1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;go2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hai2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kun1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lam5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gan7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tuan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;to5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chun1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pue1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hoo5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ia7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ping7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kian3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tio5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khe1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciong3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>iok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class='fifteen_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭八喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;p style='font-size: 0.6em;letter-spacing: 2px;text-align: right;'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公三喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅四曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='zhu_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='pin_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hi̍ok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lêng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hòng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chiat&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hôo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsiat&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;híok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;líng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zīat&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciat4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
     &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
       src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
-  </si>
-  <si>
-    <t>&lt;div class='fifteen_yin'&gt;&lt;p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居三求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/p&gt;&lt;p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公三時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;皆七地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高二語&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;皆二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;甘五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;干七語&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居一時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;迦七時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君一出&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;巾四英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;檜一邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩二曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;江一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;沽五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;迦七英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;金八時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經一地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;膠一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;干五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居三時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;金八柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經七邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;甘一時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅三求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公八地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;茄五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經八邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經四求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;伽一去&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀五英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公四去&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭三曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/p&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《寄黃幾復》【方音符號注音】
-&lt;div class='separator' style='clear: both'&gt;
-  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
-    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
-  &lt;/a&gt;
-&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t>&lt;div class='zhu_yin'&gt;&lt;p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《寄黃幾復》【白話字拼音】
-&lt;div class='separator' style='clear: both'&gt;
-  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
-    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
-  &lt;/a&gt;
-&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t>&lt;div class='pin_yin'&gt;&lt;p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hông&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sòng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tāi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;têng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pek&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hái&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kun&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lâm&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gān&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;toân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sīa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tô&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhun&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;poe&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chíu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kang&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hô͘&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;īa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si̍p&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lîan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;teng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ka&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li̍p&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pek&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pēng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sam&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kìan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;to̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tîo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;í&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pe̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kek&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khe&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;oân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chìong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;têng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《寄黃幾復》【台羅拼音】
-&lt;div class='separator' style='clear: both'&gt;
-  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
-    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
-  &lt;/a&gt;
-&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tuân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshun&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pue&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsíu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pīng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kik&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;uân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsìong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《寄黃幾復》【閩拼標音】
-&lt;div class='separator' style='clear: both'&gt;
-  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
-    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
-  &lt;/a&gt;
-&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dâi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;díng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gīan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ggǒ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bīk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǎi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gūn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lám&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ggân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dúan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sîa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cūn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;īt&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;būe&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gāng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hóo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síp&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lían&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dīng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gā&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dán&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;líp&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bīk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sām&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǐong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gìan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dók&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dío&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bík&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gīk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kē&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;úan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kōk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zìong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;díng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《寄黃幾復》【台羅改良式】
-&lt;div class='separator' style='clear: both'&gt;
-  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
-    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
-  &lt;/a&gt;
-&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;song3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tai7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;go2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hai2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lam5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gan7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tuan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;to5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pue1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hoo5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ia7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ping7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kian3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tio5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khe1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《寄黃幾復》【雙排注音】
-&lt;div class='separator' style='clear: both'&gt;
-  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
-    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
-  &lt;/a&gt;
-&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;song3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tai7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kian1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;go2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hai2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kun1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lam5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gan7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tuan5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiu1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;to5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chun1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pue1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciu2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hoo5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ia7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tan5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ping7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kian3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tok8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tio5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kik4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khe1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khok4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciong3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>iok</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>iat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭八喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公三喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅四曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hi̍ok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lêng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hòng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chiat&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hoô&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsiat&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;híok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;líng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zīat&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiok8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciat4&lt;/rt&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -2239,14 +2181,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="204">
+    <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2256,22 +2198,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2281,17 +2223,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2301,62 +2243,62 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2366,37 +2308,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2406,42 +2348,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -2451,37 +2393,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -2491,42 +2433,42 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -2536,37 +2478,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -2576,42 +2518,42 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -2621,37 +2563,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -2661,12 +2603,12 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2811,14 +2753,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="204">
+    <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2828,22 +2770,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2853,17 +2795,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2873,62 +2815,62 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2938,37 +2880,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2978,42 +2920,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3023,37 +2965,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -3063,42 +3005,42 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3108,37 +3050,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -3148,42 +3090,42 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -3193,37 +3135,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -3233,12 +3175,12 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3258,14 +3200,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="204">
+    <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3275,22 +3217,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3300,17 +3242,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3320,62 +3262,62 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3385,37 +3327,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3425,42 +3367,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3470,37 +3412,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -3510,42 +3452,42 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3555,37 +3497,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -3595,42 +3537,42 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -3640,37 +3582,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -3680,12 +3622,12 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3705,14 +3647,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="204">
+    <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3722,22 +3664,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3747,17 +3689,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3767,62 +3709,62 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3832,37 +3774,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3872,42 +3814,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3917,37 +3859,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -3957,42 +3899,42 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4002,37 +3944,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -4042,42 +3984,42 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -4087,37 +4029,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -4127,12 +4069,12 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4152,14 +4094,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="204">
+    <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4169,22 +4111,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4194,17 +4136,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4214,62 +4156,62 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -4279,37 +4221,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4319,42 +4261,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4364,37 +4306,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -4404,42 +4346,42 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4449,37 +4391,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -4489,42 +4431,42 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -4534,37 +4476,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -4574,12 +4516,12 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4599,14 +4541,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="204">
+    <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4616,22 +4558,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4641,17 +4583,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4661,62 +4603,62 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -4726,37 +4668,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4766,42 +4708,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4811,37 +4753,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -4851,42 +4793,42 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4896,37 +4838,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -4936,42 +4878,42 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -4981,37 +4923,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -5021,12 +4963,12 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5039,21 +4981,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2C29EF-DCD5-4133-988E-7D9F2AB0D719}">
   <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="204">
+    <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5063,22 +5005,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -5088,17 +5030,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -5108,62 +5050,62 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -5173,37 +5115,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -5213,42 +5155,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -5258,37 +5200,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -5298,42 +5240,42 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -5343,37 +5285,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -5383,42 +5325,42 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -5428,37 +5370,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -5468,12 +5410,12 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5486,8 +5428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4046637-7F28-4230-9F24-FC448D9504B1}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -5570,7 +5512,7 @@
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -5981,7 +5923,7 @@
         <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -6072,7 +6014,7 @@
         <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -6550,10 +6492,10 @@
         <v>ciat4</v>
       </c>
       <c r="C63" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D63" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E63">
         <v>4</v>

--- a/output/【河洛話注音】寄黃幾復.xlsx
+++ b/output/【河洛話注音】寄黃幾復.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB6D4EF1-A0D8-41E7-B9DD-A07E5C55A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E2B7C6-3B0A-4DA5-8BEE-7572505E759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3FD71F-7542-4588-8E12-DEAB23756B7E}"/>
+    <workbookView xWindow="-19515" yWindow="3315" windowWidth="16830" windowHeight="11895" firstSheet="5" activeTab="7" xr2:uid="{0A3FD71F-7542-4588-8E12-DEAB23756B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="560">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1591,26 +1591,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>iok</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>iat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class='fifteen_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
@@ -1729,12 +1709,51 @@
 &lt;/div&gt;
 </t>
   </si>
+  <si>
+    <t>ki2</t>
+  </si>
+  <si>
+    <t>ki7</t>
+  </si>
+  <si>
+    <t>hiok8</t>
+  </si>
+  <si>
+    <t>put4</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>piu2</t>
+  </si>
+  <si>
+    <t>hiu3</t>
+  </si>
+  <si>
+    <t>ling5</t>
+  </si>
+  <si>
+    <t>ling2</t>
+  </si>
+  <si>
+    <t>lai7</t>
+  </si>
+  <si>
+    <t>kin5</t>
+  </si>
+  <si>
+    <t>ciat4</t>
+  </si>
+  <si>
+    <t>siat8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -1775,13 +1794,6 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Noto Sans TC"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1817,7 +1829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1831,9 +1843,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2174,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647228A5-B82C-49A7-BADF-C7B501806FC7}">
   <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -2183,12 +2192,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2208,12 +2217,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2223,7 +2232,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -2338,7 +2347,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2368,7 +2377,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -2503,7 +2512,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -2755,12 +2764,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2780,12 +2789,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2795,7 +2804,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -2910,7 +2919,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2940,7 +2949,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -3075,7 +3084,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -3202,12 +3211,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3227,12 +3236,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3242,7 +3251,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -3357,7 +3366,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3387,7 +3396,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -3522,7 +3531,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -3649,12 +3658,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3674,12 +3683,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3689,7 +3698,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -3804,7 +3813,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3834,7 +3843,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -3864,7 +3873,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -3969,7 +3978,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4096,12 +4105,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4121,12 +4130,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4136,7 +4145,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -4251,7 +4260,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4281,7 +4290,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -4416,7 +4425,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4543,12 +4552,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4568,12 +4577,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4583,7 +4592,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -4698,7 +4707,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4728,7 +4737,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -4863,7 +4872,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4990,12 +4999,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="178.5">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5015,12 +5024,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -5030,7 +5039,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5145,7 +5154,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -5175,7 +5184,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -5310,7 +5319,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -5428,7 +5437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4046637-7F28-4230-9F24-FC448D9504B1}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
@@ -5483,9 +5492,8 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C4:E4)</f>
-        <v>ki1</v>
+      <c r="B4" t="s">
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
@@ -5494,7 +5502,7 @@
         <v>83</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -5504,18 +5512,17 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C5:E5)</f>
-        <v>hiok8</v>
+      <c r="B5" t="s">
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>510</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -5896,16 +5903,16 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>550</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>551</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -5915,15 +5922,14 @@
       <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="5" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C30:E30)</f>
-        <v>ling5</v>
+      <c r="B30" t="s">
+        <v>554</v>
       </c>
       <c r="C30" t="s">
         <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>511</v>
+        <v>96</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -6006,18 +6012,17 @@
       <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="5" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C36:E36)</f>
-        <v>hong3</v>
+      <c r="B36" t="s">
+        <v>125</v>
       </c>
       <c r="C36" t="s">
         <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>512</v>
+        <v>126</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -6428,16 +6433,16 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>550</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>551</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -6487,18 +6492,17 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="5" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C63:E63)</f>
-        <v>ciat4</v>
+      <c r="B63" t="s">
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>513</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>514</v>
+        <v>156</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -6837,13 +6841,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3929A3D3-A8DE-4D19-A07C-E5A7829795BC}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>4</v>
       </c>
@@ -6856,17 +6860,11 @@
       <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>4</v>
       </c>
@@ -6877,19 +6875,13 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>4</v>
       </c>
@@ -6900,19 +6892,13 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>547</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6923,19 +6909,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>548</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6948,17 +6928,11 @@
       <c r="D5" t="s">
         <v>88</v>
       </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6969,19 +6943,13 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>549</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>17</v>
       </c>
@@ -6994,17 +6962,11 @@
       <c r="D7" t="s">
         <v>102</v>
       </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>17</v>
       </c>
@@ -7017,17 +6979,11 @@
       <c r="D8" t="s">
         <v>102</v>
       </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>26</v>
       </c>
@@ -7040,17 +6996,11 @@
       <c r="D9" t="s">
         <v>114</v>
       </c>
-      <c r="E9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>26</v>
       </c>
@@ -7063,17 +7013,11 @@
       <c r="D10" t="s">
         <v>114</v>
       </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>26</v>
       </c>
@@ -7086,45 +7030,33 @@
       <c r="D11" t="s">
         <v>114</v>
       </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>29</v>
       </c>
       <c r="B12">
-        <v>8638</v>
+        <v>25349</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>550</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>29</v>
       </c>
       <c r="B13">
-        <v>13833</v>
+        <v>8638</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -7132,91 +7064,67 @@
       <c r="D13" t="s">
         <v>119</v>
       </c>
-      <c r="E13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>29</v>
       </c>
       <c r="B14">
-        <v>21332</v>
+        <v>13833</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>552</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>29</v>
       </c>
       <c r="B15">
-        <v>25349</v>
+        <v>21332</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>553</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>30</v>
       </c>
       <c r="B16">
-        <v>3695</v>
+        <v>8379</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>554</v>
+      </c>
+      <c r="E16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>30</v>
       </c>
       <c r="B17">
-        <v>8379</v>
+        <v>3695</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -7224,17 +7132,11 @@
       <c r="D17" t="s">
         <v>120</v>
       </c>
-      <c r="E17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>30</v>
       </c>
@@ -7245,19 +7147,13 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>555</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>30</v>
       </c>
@@ -7268,19 +7164,13 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>556</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>36</v>
       </c>
@@ -7293,17 +7183,11 @@
       <c r="D20" t="s">
         <v>125</v>
       </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>36</v>
       </c>
@@ -7316,17 +7200,11 @@
       <c r="D21" t="s">
         <v>127</v>
       </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>44</v>
       </c>
@@ -7339,17 +7217,11 @@
       <c r="D22" t="s">
         <v>140</v>
       </c>
-      <c r="E22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>44</v>
       </c>
@@ -7362,17 +7234,11 @@
       <c r="D23" t="s">
         <v>140</v>
       </c>
-      <c r="E23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>52</v>
       </c>
@@ -7385,17 +7251,11 @@
       <c r="D24" t="s">
         <v>149</v>
       </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>52</v>
       </c>
@@ -7408,17 +7268,11 @@
       <c r="D25" t="s">
         <v>149</v>
       </c>
-      <c r="E25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>52</v>
       </c>
@@ -7431,17 +7285,11 @@
       <c r="D26" t="s">
         <v>149</v>
       </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>58</v>
       </c>
@@ -7454,17 +7302,11 @@
       <c r="D27" t="s">
         <v>146</v>
       </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>58</v>
       </c>
@@ -7477,17 +7319,11 @@
       <c r="D28" t="s">
         <v>146</v>
       </c>
-      <c r="E28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>58</v>
       </c>
@@ -7500,45 +7336,33 @@
       <c r="D29" t="s">
         <v>146</v>
       </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>60</v>
       </c>
       <c r="B30">
-        <v>8638</v>
+        <v>25349</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>550</v>
+      </c>
+      <c r="E30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>60</v>
       </c>
       <c r="B31">
-        <v>13833</v>
+        <v>8638</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -7546,63 +7370,45 @@
       <c r="D31" t="s">
         <v>119</v>
       </c>
-      <c r="E31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>60</v>
       </c>
       <c r="B32">
-        <v>21332</v>
+        <v>13833</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>552</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>60</v>
       </c>
       <c r="B33">
-        <v>25349</v>
+        <v>21332</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>553</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>61</v>
       </c>
@@ -7615,17 +7421,11 @@
       <c r="D34" t="s">
         <v>87</v>
       </c>
-      <c r="E34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>61</v>
       </c>
@@ -7636,19 +7436,13 @@
         <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>61</v>
       </c>
@@ -7659,19 +7453,13 @@
         <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>557</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>62</v>
       </c>
@@ -7684,17 +7472,11 @@
       <c r="D37" t="s">
         <v>154</v>
       </c>
-      <c r="E37" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>62</v>
       </c>
@@ -7707,17 +7489,11 @@
       <c r="D38" t="s">
         <v>154</v>
       </c>
-      <c r="E38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>63</v>
       </c>
@@ -7730,17 +7506,11 @@
       <c r="D39" t="s">
         <v>155</v>
       </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>63</v>
       </c>
@@ -7751,19 +7521,13 @@
         <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>558</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>63</v>
       </c>
@@ -7774,19 +7538,13 @@
         <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>559</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>68</v>
       </c>
@@ -7799,17 +7557,11 @@
       <c r="D42" t="s">
         <v>159</v>
       </c>
-      <c r="E42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>68</v>
       </c>
@@ -7822,14 +7574,8 @@
       <c r="D43" t="s">
         <v>159</v>
       </c>
-      <c r="E43" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
+      <c r="E43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/【河洛話注音】寄黃幾復.xlsx
+++ b/output/【河洛話注音】寄黃幾復.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E2B7C6-3B0A-4DA5-8BEE-7572505E759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05892DE5-12DC-4B78-A01A-59A5AFDDE85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19515" yWindow="3315" windowWidth="16830" windowHeight="11895" firstSheet="5" activeTab="7" xr2:uid="{0A3FD71F-7542-4588-8E12-DEAB23756B7E}"/>
+    <workbookView xWindow="-27525" yWindow="2730" windowWidth="27525" windowHeight="12435" xr2:uid="{0A3FD71F-7542-4588-8E12-DEAB23756B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="567">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -630,9 +630,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;迦七時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -747,168 +744,6 @@
     <t>&lt;/p&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -957,9 +792,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sīa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tô&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1158,9 +990,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sîa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1317,9 +1146,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;to5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1431,277 +1257,65 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;song3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tai7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kian1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;go2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hai2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kun1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lam5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gan7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tuan5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiu1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;to5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chun1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pue1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciu2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hoo5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ia7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tan5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ping7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kian3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tok8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tio5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kik4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khe1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khok4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciong3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class='fifteen_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭八喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/p&gt;&lt;p style='font-size: 0.6em;letter-spacing: 2px;text-align: right;'&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公三喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅四曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class='zhu_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class='pin_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hi̍ok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lêng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hòng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chiat&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hôo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsiat&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;híok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;líng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zīat&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiok8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciat4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div class='separator' style='clear: both'&gt;
+    <t>ki2</t>
+  </si>
+  <si>
+    <t>ki7</t>
+  </si>
+  <si>
+    <t>hiok8</t>
+  </si>
+  <si>
+    <t>put4</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>piu2</t>
+  </si>
+  <si>
+    <t>hiu3</t>
+  </si>
+  <si>
+    <t>ling5</t>
+  </si>
+  <si>
+    <t>ling2</t>
+  </si>
+  <si>
+    <t>lai7</t>
+  </si>
+  <si>
+    <t>kin5</t>
+  </si>
+  <si>
+    <t>ciat4</t>
+  </si>
+  <si>
+    <t>siat8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《寄黃幾復》【十五音切語】
+&lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
     &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
       src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
@@ -1710,43 +1324,493 @@
 </t>
   </si>
   <si>
-    <t>ki2</t>
-  </si>
-  <si>
-    <t>ki7</t>
-  </si>
-  <si>
-    <t>hiok8</t>
-  </si>
-  <si>
-    <t>put4</t>
-  </si>
-  <si>
-    <t>ut</t>
-  </si>
-  <si>
-    <t>piu2</t>
-  </si>
-  <si>
-    <t>hiu3</t>
-  </si>
-  <si>
-    <t>ling5</t>
-  </si>
-  <si>
-    <t>ling2</t>
-  </si>
-  <si>
-    <t>lai7</t>
-  </si>
-  <si>
-    <t>kin5</t>
-  </si>
-  <si>
-    <t>ciat4</t>
-  </si>
-  <si>
-    <t>siat8</t>
+    <t>&lt;div class='fifteen_yin'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩七喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;p class='author'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;伽五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《寄黃幾復》【方音符號注音】
+&lt;div class='separator' style='clear: both'&gt;
+  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
+    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
+      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
+  &lt;/a&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;div class='Piau_Im'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㆲ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄞ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㄢ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆣㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧㆻ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄞˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄨㄣ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆰˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆣㄢ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄨㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄚ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄨㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄜˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄘㄨㄣ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄨㆤ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄤ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆦˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄚ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆴ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㄥ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄚ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㆴ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧㆻ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧㄥ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㆰ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㆤˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆲˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㄢ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㆦㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㄜˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㆻ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㆤ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄨㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㆦㆻ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㆲ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《寄黃幾復》【白話字拼音】
+&lt;div class='separator' style='clear: both'&gt;
+  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
+    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
+      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
+  &lt;/a&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;div class='pin_yin'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;put&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tê&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《寄黃幾復》【台羅拼音】
+&lt;div class='separator' style='clear: both'&gt;
+  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
+    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
+      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
+  &lt;/a&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《寄黃幾復》【閩拼標音】
+&lt;div class='separator' style='clear: both'&gt;
+  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
+    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
+      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
+  &lt;/a&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiû&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;būt&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dé&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《寄黃幾復》【台羅改良式】
+&lt;div class='separator' style='clear: both'&gt;
+  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
+    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
+      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
+  &lt;/a&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;put4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;te5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《寄黃幾復》【雙排注音】
+&lt;div class='separator' style='clear: both'&gt;
+  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
+    &lt;img alt='寄黃幾復' border='0' width='400' data-original-height='630' data-original-width='1200'
+      src='https://img.nctvcloud.com/2020112413a554ebfa06eeea8643208187c028a4_origin.png' /&gt;
+  &lt;/a&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;div class='Siang_Pai'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rt&gt;hiu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rt&gt;song3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rt&gt;tai7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rt&gt;kian1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rt&gt;go2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rt&gt;hai2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rt&gt;kun1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rt&gt;lam5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雁&lt;/rb&gt;&lt;rt&gt;gan7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傳&lt;/rb&gt;&lt;rt&gt;tuan5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rt&gt;put4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桃&lt;/rb&gt;&lt;rt&gt;to5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rt&gt;chun1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杯&lt;/rb&gt;&lt;rt&gt;pue1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rt&gt;ciu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;湖&lt;/rb&gt;&lt;rt&gt;hoo5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rt&gt;ia7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;燈&lt;/rb&gt;&lt;rt&gt;ting1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;持&lt;/rb&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rt&gt;tan5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壁&lt;/rb&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;治&lt;/rb&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;病&lt;/rb&gt;&lt;rt&gt;ping7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘄&lt;/rb&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;折&lt;/rb&gt;&lt;rt&gt;te5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肱&lt;/rb&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rt&gt;kian3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;讀&lt;/rb&gt;&lt;rt&gt;tok8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頭&lt;/rb&gt;&lt;rt&gt;tio5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rt&gt;pik8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rt&gt;kik4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溪&lt;/rb&gt;&lt;rt&gt;khe1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猿&lt;/rb&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哭&lt;/rb&gt;&lt;rt&gt;khok4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘴&lt;/rb&gt;&lt;rt&gt;ciong3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;藤&lt;/rb&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -2183,21 +2247,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647228A5-B82C-49A7-BADF-C7B501806FC7}">
   <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="178.5">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2207,22 +2271,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2232,17 +2296,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2252,17 +2316,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2277,37 +2341,37 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2317,37 +2381,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2362,37 +2426,37 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -2402,37 +2466,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -2447,37 +2511,37 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -2487,37 +2551,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -2532,37 +2596,37 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -2572,37 +2636,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -2617,7 +2681,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2762,14 +2826,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="178.5">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2779,22 +2843,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2804,17 +2868,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2824,17 +2888,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2849,37 +2913,37 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2889,37 +2953,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>418</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>538</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2934,37 +2998,37 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -2974,37 +3038,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -3019,37 +3083,37 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3059,37 +3123,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>418</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>443</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -3104,37 +3168,37 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>449</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -3144,37 +3208,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>450</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>452</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -3189,7 +3253,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3209,14 +3273,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="178.5">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3226,22 +3290,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>532</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3251,17 +3315,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3271,17 +3335,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -3296,37 +3360,37 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3336,37 +3400,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>365</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>534</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3381,37 +3445,37 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3421,37 +3485,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -3466,37 +3530,37 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3506,37 +3570,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>365</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -3551,37 +3615,37 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -3591,37 +3655,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -3636,7 +3700,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3656,14 +3720,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="178.5">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>546</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3673,22 +3737,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3698,17 +3762,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3718,17 +3782,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -3743,37 +3807,37 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3783,37 +3847,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>298</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>529</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3828,37 +3892,37 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3868,37 +3932,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>530</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -3913,37 +3977,37 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3953,37 +4017,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>298</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -3998,37 +4062,37 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -4038,37 +4102,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -4083,7 +4147,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4103,14 +4167,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="178.5">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>546</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4120,22 +4184,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4145,17 +4209,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4165,17 +4229,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -4190,37 +4254,37 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -4230,37 +4294,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>298</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>526</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4275,37 +4339,37 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4315,37 +4379,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -4360,37 +4424,37 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4400,37 +4464,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>298</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -4445,37 +4509,37 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -4485,37 +4549,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -4530,7 +4594,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4550,14 +4614,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="178.5">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>546</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4567,22 +4631,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>228</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>518</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>519</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4592,17 +4656,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>230</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>231</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4612,17 +4676,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>229</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>232</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>233</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -4637,37 +4701,37 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>234</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>235</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>236</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>237</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>238</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>239</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>237</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -4677,37 +4741,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>228</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>240</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>241</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>243</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>244</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>520</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4722,37 +4786,37 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>245</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>246</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>247</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>521</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>248</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>249</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>250</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4762,37 +4826,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>251</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>252</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>253</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>254</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>255</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>256</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>257</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -4807,37 +4871,37 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>258</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>259</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>260</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>261</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>262</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>263</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>264</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4847,37 +4911,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>265</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>266</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>244</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>267</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>268</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>269</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -4892,37 +4956,37 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>270</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>271</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>272</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>242</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>273</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>274</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>275</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -4932,37 +4996,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>276</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>277</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>278</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>279</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>280</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>277</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>281</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -4977,7 +5041,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4997,14 +5061,14 @@
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="178.5">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>546</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>510</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5024,12 +5088,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>511</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -5039,7 +5103,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5149,12 +5213,12 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>189</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>514</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -5169,37 +5233,37 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>515</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -5209,37 +5273,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -5254,37 +5318,37 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -5294,37 +5358,37 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>189</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>516</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -5339,17 +5403,17 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -5359,17 +5423,17 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -5379,37 +5443,37 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -5424,7 +5488,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5437,7 +5501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4046637-7F28-4230-9F24-FC448D9504B1}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
@@ -5903,13 +5967,13 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>550</v>
+        <v>407</v>
       </c>
       <c r="C29" t="s">
         <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>551</v>
+        <v>408</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -5923,7 +5987,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="C30" t="s">
         <v>110</v>
@@ -6433,13 +6497,13 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>550</v>
+        <v>407</v>
       </c>
       <c r="C60" t="s">
         <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>551</v>
+        <v>408</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -6892,7 +6956,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>404</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6909,7 +6973,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>548</v>
+        <v>405</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6943,7 +7007,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>549</v>
+        <v>406</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7045,7 +7109,7 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>550</v>
+        <v>407</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -7079,7 +7143,7 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>552</v>
+        <v>409</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -7096,7 +7160,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>553</v>
+        <v>410</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -7113,7 +7177,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="E16">
         <v>0.6</v>
@@ -7147,7 +7211,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>555</v>
+        <v>412</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -7164,7 +7228,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>556</v>
+        <v>413</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -7351,7 +7415,7 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>550</v>
+        <v>407</v>
       </c>
       <c r="E30">
         <v>0.8</v>
@@ -7385,7 +7449,7 @@
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>552</v>
+        <v>409</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -7402,7 +7466,7 @@
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>553</v>
+        <v>410</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7453,7 +7517,7 @@
         <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>557</v>
+        <v>414</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -7521,7 +7585,7 @@
         <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>558</v>
+        <v>415</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -7538,7 +7602,7 @@
         <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>559</v>
+        <v>416</v>
       </c>
       <c r="E41">
         <v>0</v>
